--- a/Code/Results/Cases/Case_1_89/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_89/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2723530480708405</v>
+        <v>0.1424070089188945</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02081490007833153</v>
+        <v>0.02022219814269377</v>
       </c>
       <c r="E2">
-        <v>0.2420786006644349</v>
+        <v>0.1300736245576957</v>
       </c>
       <c r="F2">
-        <v>0.906859319345017</v>
+        <v>0.8825687668108486</v>
       </c>
       <c r="G2">
-        <v>0.8396088085161182</v>
+        <v>0.7367339035159262</v>
       </c>
       <c r="H2">
-        <v>0.5168095086539779</v>
+        <v>0.7828929359033054</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.156452298730244</v>
+        <v>0.6505724682276366</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8343697140216833</v>
+        <v>0.293988279558711</v>
       </c>
       <c r="N2">
-        <v>0.781055985609779</v>
+        <v>1.558108670163225</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2379972130382981</v>
+        <v>0.1329457677670831</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0202530223885482</v>
+        <v>0.01992685482388623</v>
       </c>
       <c r="E3">
-        <v>0.2111394450946165</v>
+        <v>0.1227349444362389</v>
       </c>
       <c r="F3">
-        <v>0.8210657764178819</v>
+        <v>0.8667623640130131</v>
       </c>
       <c r="G3">
-        <v>0.7577590875438176</v>
+        <v>0.7210222625194405</v>
       </c>
       <c r="H3">
-        <v>0.4859944197585975</v>
+        <v>0.7806078034431749</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.87166824917432</v>
+        <v>0.5680691593517508</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7204155259154987</v>
+        <v>0.2630141578407716</v>
       </c>
       <c r="N3">
-        <v>0.8278928974775113</v>
+        <v>1.576700559340486</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2170755257002099</v>
+        <v>0.1272075476655914</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01990763461646949</v>
+        <v>0.01974403680389969</v>
       </c>
       <c r="E4">
-        <v>0.1925980122190296</v>
+        <v>0.1183249178463512</v>
       </c>
       <c r="F4">
-        <v>0.770225652498425</v>
+        <v>0.857673231157662</v>
       </c>
       <c r="G4">
-        <v>0.7093770945056264</v>
+        <v>0.7119386218113988</v>
       </c>
       <c r="H4">
-        <v>0.4681388876921631</v>
+        <v>0.779648591287085</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.697852024426481</v>
+        <v>0.5173954926115414</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6512539546567311</v>
+        <v>0.2440992115783516</v>
       </c>
       <c r="N4">
-        <v>0.8579955973398334</v>
+        <v>1.588707123821953</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2085888844529364</v>
+        <v>0.1248871700813083</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01976673462553791</v>
+        <v>0.019669173936812</v>
       </c>
       <c r="E5">
-        <v>0.1851438882020631</v>
+        <v>0.1165516861483269</v>
       </c>
       <c r="F5">
-        <v>0.7499314304037767</v>
+        <v>0.8541238063040595</v>
       </c>
       <c r="G5">
-        <v>0.6900916562808561</v>
+        <v>0.7083780416049308</v>
       </c>
       <c r="H5">
-        <v>0.4611118074491714</v>
+        <v>0.7793691639139411</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.627228973357234</v>
+        <v>0.4967414191117712</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6232432313719229</v>
+        <v>0.2364168823468233</v>
       </c>
       <c r="N5">
-        <v>0.8705898030115797</v>
+        <v>1.593748372564473</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2071819233948418</v>
+        <v>0.1245029639070339</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01974332781631816</v>
+        <v>0.01965672132991259</v>
       </c>
       <c r="E6">
-        <v>0.1839119183533739</v>
+        <v>0.1162586783321373</v>
       </c>
       <c r="F6">
-        <v>0.7465860924704657</v>
+        <v>0.8535437437588484</v>
       </c>
       <c r="G6">
-        <v>0.686914194328466</v>
+        <v>0.7077953135808741</v>
       </c>
       <c r="H6">
-        <v>0.4599594954601827</v>
+        <v>0.7793294925984782</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.615513162823106</v>
+        <v>0.4933115746945589</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6186017025122652</v>
+        <v>0.2351427786097346</v>
       </c>
       <c r="N6">
-        <v>0.8727005091090732</v>
+        <v>1.594594431248787</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2169609191133901</v>
+        <v>0.1271761812061243</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01990573506483528</v>
+        <v>0.01974302863602873</v>
       </c>
       <c r="E7">
-        <v>0.1924970879892669</v>
+        <v>0.1183009070073595</v>
       </c>
       <c r="F7">
-        <v>0.7699502917003542</v>
+        <v>0.8576247375171988</v>
       </c>
       <c r="G7">
-        <v>0.7091153125661265</v>
+        <v>0.7118900321448223</v>
       </c>
       <c r="H7">
-        <v>0.4680431327771544</v>
+        <v>0.7796443717468691</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.696898801379916</v>
+        <v>0.5171169613772406</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6508755288071342</v>
+        <v>0.2439955014866655</v>
       </c>
       <c r="N7">
-        <v>0.8581641367817987</v>
+        <v>1.588774510899283</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2604685502594464</v>
+        <v>0.1391301105050786</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0206212100914378</v>
+        <v>0.02012067484233881</v>
       </c>
       <c r="E8">
-        <v>0.2313082532194031</v>
+        <v>0.1275231866572639</v>
       </c>
       <c r="F8">
-        <v>0.876872352624801</v>
+        <v>0.876990580579303</v>
       </c>
       <c r="G8">
-        <v>0.8109727400735238</v>
+        <v>0.7311992414856121</v>
       </c>
       <c r="H8">
-        <v>0.5059518062012671</v>
+        <v>0.7820128007097225</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.058008891143743</v>
+        <v>0.6221286577903982</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7948923147075462</v>
+        <v>0.283286769017316</v>
       </c>
       <c r="N8">
-        <v>0.7969194338494354</v>
+        <v>1.564396386718673</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3473722542758253</v>
+        <v>0.163130623946941</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02202433177405183</v>
+        <v>0.02084921084797386</v>
       </c>
       <c r="E9">
-        <v>0.3116617105836923</v>
+        <v>0.1463811732572324</v>
       </c>
       <c r="F9">
-        <v>1.103007036115571</v>
+        <v>0.9198784120681012</v>
       </c>
       <c r="G9">
-        <v>1.027570886292253</v>
+        <v>0.7735641526034556</v>
       </c>
       <c r="H9">
-        <v>0.5896517554197231</v>
+        <v>0.7901875455598315</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.777066571127733</v>
+        <v>0.8279394793902668</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.08517376708847</v>
+        <v>0.361174317762277</v>
       </c>
       <c r="N9">
-        <v>0.6880179169735499</v>
+        <v>1.521286940748958</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4125084483290635</v>
+        <v>0.1811002513312587</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02306107592614381</v>
+        <v>0.02137677097021751</v>
       </c>
       <c r="E10">
-        <v>0.3742536995118897</v>
+        <v>0.1607252660449348</v>
       </c>
       <c r="F10">
-        <v>1.282040632034793</v>
+        <v>0.9544192688656921</v>
       </c>
       <c r="G10">
-        <v>1.19999981465071</v>
+        <v>0.8074779877264007</v>
       </c>
       <c r="H10">
-        <v>0.6582366901239425</v>
+        <v>0.7983592453472568</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.316086829737969</v>
+        <v>0.9791101120300993</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.305481643784617</v>
+        <v>0.4189395078033158</v>
       </c>
       <c r="N10">
-        <v>0.6156288769937213</v>
+        <v>1.492484555234899</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4424975519704901</v>
+        <v>0.1893473693060486</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02353571997572956</v>
+        <v>0.02161503062983883</v>
       </c>
       <c r="E11">
-        <v>0.4037429772993306</v>
+        <v>0.1673609195727153</v>
       </c>
       <c r="F11">
-        <v>1.36699323597081</v>
+        <v>0.9707992878661003</v>
       </c>
       <c r="G11">
-        <v>1.282076017285391</v>
+        <v>0.8235217794801031</v>
       </c>
       <c r="H11">
-        <v>0.6913201174256187</v>
+        <v>0.8025501154950518</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.564642701331991</v>
+        <v>1.047881180035461</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.40779276265252</v>
+        <v>0.4453428876159222</v>
       </c>
       <c r="N11">
-        <v>0.5845473770674126</v>
+        <v>1.480006419416039</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4539120173992899</v>
+        <v>0.1924806740885145</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02371606984221231</v>
+        <v>0.02170499792265801</v>
       </c>
       <c r="E12">
-        <v>0.4150785515517441</v>
+        <v>0.1698898417110044</v>
       </c>
       <c r="F12">
-        <v>1.39973254125259</v>
+        <v>0.9770984983490649</v>
       </c>
       <c r="G12">
-        <v>1.313748466592699</v>
+        <v>0.8296864853126635</v>
       </c>
       <c r="H12">
-        <v>0.7041506456048694</v>
+        <v>0.8042053993576701</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.659339828303473</v>
+        <v>1.073923711404632</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.446888052747923</v>
+        <v>0.4553596770339112</v>
       </c>
       <c r="N12">
-        <v>0.573061753156658</v>
+        <v>1.475371212329016</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4514510050643139</v>
+        <v>0.1918054050627518</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02367719782921185</v>
+        <v>0.02168563338321405</v>
       </c>
       <c r="E13">
-        <v>0.412629347702385</v>
+        <v>0.1693444708884471</v>
       </c>
       <c r="F13">
-        <v>1.392655108701319</v>
+        <v>0.9757375527632064</v>
       </c>
       <c r="G13">
-        <v>1.30689973731225</v>
+        <v>0.8283548247732426</v>
       </c>
       <c r="H13">
-        <v>0.701373366895524</v>
+        <v>0.8038458638261261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.638917988041328</v>
+        <v>1.068314967237541</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.438451636032056</v>
+        <v>0.4532015585219256</v>
       </c>
       <c r="N13">
-        <v>0.5755224323717947</v>
+        <v>1.476365480963242</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4434354192871695</v>
+        <v>0.1896049425813544</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02355054405136769</v>
+        <v>0.02162243747639891</v>
       </c>
       <c r="E14">
-        <v>0.4046720444006695</v>
+        <v>0.1675686504641547</v>
       </c>
       <c r="F14">
-        <v>1.36967490742046</v>
+        <v>0.9713155917206677</v>
       </c>
       <c r="G14">
-        <v>1.284669445066271</v>
+        <v>0.8240271606484555</v>
       </c>
       <c r="H14">
-        <v>0.6923694362483559</v>
+        <v>0.8026849268598824</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.572421416108398</v>
+        <v>1.050023706204456</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.411001780985046</v>
+        <v>0.4461666042150654</v>
       </c>
       <c r="N14">
-        <v>0.5835966388464406</v>
+        <v>1.479623273226302</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4385334347892069</v>
+        <v>0.1882584328288033</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0234730505805878</v>
+        <v>0.02158369453468367</v>
       </c>
       <c r="E15">
-        <v>0.3998206372511675</v>
+        <v>0.1664830194037208</v>
       </c>
       <c r="F15">
-        <v>1.355675087707567</v>
+        <v>0.9686195890547538</v>
       </c>
       <c r="G15">
-        <v>1.271132005656796</v>
+        <v>0.8213879866214313</v>
       </c>
       <c r="H15">
-        <v>0.6868946644959237</v>
+        <v>0.8019827191043873</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.531768052933273</v>
+        <v>1.038819836111145</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.394235451093039</v>
+        <v>0.4418598978634947</v>
       </c>
       <c r="N15">
-        <v>0.5885799205615747</v>
+        <v>1.481630491608133</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4105563625705884</v>
+        <v>0.1805627320904222</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02303013208318561</v>
+        <v>0.02136116466510529</v>
       </c>
       <c r="E16">
-        <v>0.3723488200347873</v>
+        <v>0.160293855366767</v>
       </c>
       <c r="F16">
-        <v>1.276564804245822</v>
+        <v>0.9533622654927285</v>
       </c>
       <c r="G16">
-        <v>1.194714871486752</v>
+        <v>0.8064419443149404</v>
       </c>
       <c r="H16">
-        <v>0.6561151522396642</v>
+        <v>0.7980949076818433</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.29991826136137</v>
+        <v>0.9746158186366358</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.298841745175565</v>
+        <v>0.4172165421602898</v>
       </c>
       <c r="N16">
-        <v>0.6176988615926078</v>
+        <v>1.493312611184965</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3934897269959379</v>
+        <v>0.175860171079492</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02275930631352807</v>
+        <v>0.02122420114663015</v>
       </c>
       <c r="E17">
-        <v>0.3557712307421141</v>
+        <v>0.1565254787180734</v>
       </c>
       <c r="F17">
-        <v>1.228976270871456</v>
+        <v>0.9441736411756665</v>
       </c>
       <c r="G17">
-        <v>1.148813975163449</v>
+        <v>0.7974313272925144</v>
       </c>
       <c r="H17">
-        <v>0.6377369549265097</v>
+        <v>0.795831283613353</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.15860740843425</v>
+        <v>0.9352294596108948</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.240891557954257</v>
+        <v>0.402131068822186</v>
       </c>
       <c r="N17">
-        <v>0.6360484440554792</v>
+        <v>1.50063925236423</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3837067447751963</v>
+        <v>0.1731622287285859</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02260380658740502</v>
+        <v>0.0211452609543592</v>
       </c>
       <c r="E18">
-        <v>0.3463303728688203</v>
+        <v>0.1543683888606537</v>
       </c>
       <c r="F18">
-        <v>1.201930669983795</v>
+        <v>0.9389513578339859</v>
       </c>
       <c r="G18">
-        <v>1.122750852431778</v>
+        <v>0.792306620467599</v>
       </c>
       <c r="H18">
-        <v>0.6273415400780493</v>
+        <v>0.7945738649945326</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.077638674165456</v>
+        <v>0.9125757286068108</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.207753665300686</v>
+        <v>0.3934661158188106</v>
       </c>
       <c r="N18">
-        <v>0.6467754389381852</v>
+        <v>1.504912082460589</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3803999173052262</v>
+        <v>0.1722499321206641</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02255119891803758</v>
+        <v>0.0211185055073102</v>
       </c>
       <c r="E19">
-        <v>0.3431493799675138</v>
+        <v>0.1536398102718053</v>
       </c>
       <c r="F19">
-        <v>1.19282761959424</v>
+        <v>0.9371939478461258</v>
       </c>
       <c r="G19">
-        <v>1.11398236491496</v>
+        <v>0.7905814177695447</v>
       </c>
       <c r="H19">
-        <v>0.623851014554532</v>
+        <v>0.7941557714927399</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.050274553995649</v>
+        <v>0.9049056088641407</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.19656549984721</v>
+        <v>0.3905343304937219</v>
       </c>
       <c r="N19">
-        <v>0.6504365601315953</v>
+        <v>1.506368870981415</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3953030065634522</v>
+        <v>0.1763600592118877</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02278810683982258</v>
+        <v>0.02123879801147055</v>
       </c>
       <c r="E20">
-        <v>0.3575260453786413</v>
+        <v>0.1569255525965829</v>
       </c>
       <c r="F20">
-        <v>1.234007954736782</v>
+        <v>0.9451452857470031</v>
       </c>
       <c r="G20">
-        <v>1.153664759394417</v>
+        <v>0.7983845192687795</v>
       </c>
       <c r="H20">
-        <v>0.6396749895809819</v>
+        <v>0.7960676372177033</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.173617516159737</v>
+        <v>0.9394221776422</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.247040069682711</v>
+        <v>0.4037357183381545</v>
       </c>
       <c r="N20">
-        <v>0.6340770875077766</v>
+        <v>1.499853237878536</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4457881542886639</v>
+        <v>0.1902509933722314</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0235877271251006</v>
+        <v>0.02164100666709956</v>
       </c>
       <c r="E21">
-        <v>0.407004528913113</v>
+        <v>0.1680898117319671</v>
       </c>
       <c r="F21">
-        <v>1.3764087407734</v>
+        <v>0.9726118070968255</v>
       </c>
       <c r="G21">
-        <v>1.291182370811327</v>
+        <v>0.825295872474868</v>
       </c>
       <c r="H21">
-        <v>0.6950056293915452</v>
+        <v>0.8030240671468221</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.59193669867409</v>
+        <v>1.05539628135989</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.419054470397839</v>
+        <v>0.4482324387691392</v>
       </c>
       <c r="N21">
-        <v>0.5812171780524409</v>
+        <v>1.478663936446967</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4791261059512379</v>
+        <v>0.1993894914255208</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02411400366084493</v>
+        <v>0.02190237496097325</v>
       </c>
       <c r="E22">
-        <v>0.4403367525899569</v>
+        <v>0.1754805234478454</v>
       </c>
       <c r="F22">
-        <v>1.47283092593841</v>
+        <v>0.9911252056476485</v>
       </c>
       <c r="G22">
-        <v>1.38454573001809</v>
+        <v>0.8434046400481918</v>
       </c>
       <c r="H22">
-        <v>0.7329479967357031</v>
+        <v>0.8079686506862345</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.868730540537285</v>
+        <v>1.131194526586512</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.533557194831715</v>
+        <v>0.4774210355971888</v>
       </c>
       <c r="N22">
-        <v>0.548336962842086</v>
+        <v>1.465340156105107</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4612992707650392</v>
+        <v>0.1945066640685127</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02383271534784726</v>
+        <v>0.02176301736358255</v>
       </c>
       <c r="E23">
-        <v>0.4224475501640299</v>
+        <v>0.1715272533660013</v>
       </c>
       <c r="F23">
-        <v>1.421038401164225</v>
+        <v>0.9811926242562095</v>
       </c>
       <c r="G23">
-        <v>1.334372189078323</v>
+        <v>0.8336917926269223</v>
       </c>
       <c r="H23">
-        <v>0.7125231936864793</v>
+        <v>0.8052931354293378</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.720656481008291</v>
+        <v>1.090739343038365</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.472236022696279</v>
+        <v>0.4618325947167961</v>
       </c>
       <c r="N23">
-        <v>0.565726675824159</v>
+        <v>1.472403225305079</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3944831334989658</v>
+        <v>0.1761340422629161</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02277508550684004</v>
+        <v>0.02123219938373921</v>
       </c>
       <c r="E24">
-        <v>0.3567324155884677</v>
+        <v>0.1567446499389504</v>
       </c>
       <c r="F24">
-        <v>1.231732158245933</v>
+        <v>0.9447058171916609</v>
       </c>
       <c r="G24">
-        <v>1.151470709817659</v>
+        <v>0.7979534079791506</v>
       </c>
       <c r="H24">
-        <v>0.6387982755365726</v>
+        <v>0.7959606447979581</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.166830603734041</v>
+        <v>0.9375266809463199</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.244259775545643</v>
+        <v>0.4030102317586426</v>
       </c>
       <c r="N24">
-        <v>0.6349677860674348</v>
+        <v>1.500208406121086</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3236608990873862</v>
+        <v>0.1565784565892727</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02164421664059901</v>
+        <v>0.02065344848825745</v>
       </c>
       <c r="E25">
-        <v>0.2893751023255504</v>
+        <v>0.1411949849309266</v>
       </c>
       <c r="F25">
-        <v>1.03978941790453</v>
+        <v>0.9077464973700415</v>
       </c>
       <c r="G25">
-        <v>0.9668752845375224</v>
+        <v>0.7616169422042418</v>
       </c>
       <c r="H25">
-        <v>0.5658710870198291</v>
+        <v>0.7875967277125397</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.580975168573701</v>
+        <v>0.7722713536255128</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.005583834712724</v>
+        <v>0.3400108562648825</v>
       </c>
       <c r="N25">
-        <v>0.7162019484295463</v>
+        <v>1.532445708852578</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_89/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_89/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424070089188945</v>
+        <v>0.2723530480710679</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02022219814269377</v>
+        <v>0.02081490007844877</v>
       </c>
       <c r="E2">
-        <v>0.1300736245576957</v>
+        <v>0.2420786006644065</v>
       </c>
       <c r="F2">
-        <v>0.8825687668108486</v>
+        <v>0.9068593193450312</v>
       </c>
       <c r="G2">
-        <v>0.7367339035159262</v>
+        <v>0.8396088085161182</v>
       </c>
       <c r="H2">
-        <v>0.7828929359033054</v>
+        <v>0.5168095086540916</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6505724682276366</v>
+        <v>2.156452298730272</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.293988279558711</v>
+        <v>0.8343697140216548</v>
       </c>
       <c r="N2">
-        <v>1.558108670163225</v>
+        <v>0.7810559856097754</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329457677670831</v>
+        <v>0.2379972130385823</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01992685482388623</v>
+        <v>0.02025302238843096</v>
       </c>
       <c r="E3">
-        <v>0.1227349444362389</v>
+        <v>0.2111394450946165</v>
       </c>
       <c r="F3">
-        <v>0.8667623640130131</v>
+        <v>0.8210657764178819</v>
       </c>
       <c r="G3">
-        <v>0.7210222625194405</v>
+        <v>0.7577590875438318</v>
       </c>
       <c r="H3">
-        <v>0.7806078034431749</v>
+        <v>0.4859944197585975</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5680691593517508</v>
+        <v>1.871668249174292</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2630141578407716</v>
+        <v>0.7204155259155058</v>
       </c>
       <c r="N3">
-        <v>1.576700559340486</v>
+        <v>0.8278928974775042</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1272075476655914</v>
+        <v>0.2170755257003236</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01974403680389969</v>
+        <v>0.01990763461629541</v>
       </c>
       <c r="E4">
-        <v>0.1183249178463512</v>
+        <v>0.1925980122190296</v>
       </c>
       <c r="F4">
-        <v>0.857673231157662</v>
+        <v>0.770225652498425</v>
       </c>
       <c r="G4">
-        <v>0.7119386218113988</v>
+        <v>0.7093770945057116</v>
       </c>
       <c r="H4">
-        <v>0.779648591287085</v>
+        <v>0.4681388876921631</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5173954926115414</v>
+        <v>1.697852024426567</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2440992115783516</v>
+        <v>0.6512539546567311</v>
       </c>
       <c r="N4">
-        <v>1.588707123821953</v>
+        <v>0.857995597339837</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1248871700813083</v>
+        <v>0.208588884452837</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.019669173936812</v>
+        <v>0.01976673462554146</v>
       </c>
       <c r="E5">
-        <v>0.1165516861483269</v>
+        <v>0.1851438882020489</v>
       </c>
       <c r="F5">
-        <v>0.8541238063040595</v>
+        <v>0.749931430403791</v>
       </c>
       <c r="G5">
-        <v>0.7083780416049308</v>
+        <v>0.6900916562808703</v>
       </c>
       <c r="H5">
-        <v>0.7793691639139411</v>
+        <v>0.4611118074491571</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4967414191117712</v>
+        <v>1.627228973357234</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2364168823468233</v>
+        <v>0.6232432313719087</v>
       </c>
       <c r="N5">
-        <v>1.593748372564473</v>
+        <v>0.8705898030115335</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1245029639070339</v>
+        <v>0.2071819233948702</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01965672132991259</v>
+        <v>0.01974332781638566</v>
       </c>
       <c r="E6">
-        <v>0.1162586783321373</v>
+        <v>0.1839119183533455</v>
       </c>
       <c r="F6">
-        <v>0.8535437437588484</v>
+        <v>0.7465860924704515</v>
       </c>
       <c r="G6">
-        <v>0.7077953135808741</v>
+        <v>0.6869141943284944</v>
       </c>
       <c r="H6">
-        <v>0.7793294925984782</v>
+        <v>0.4599594954601827</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4933115746945589</v>
+        <v>1.615513162823021</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2351427786097346</v>
+        <v>0.6186017025122581</v>
       </c>
       <c r="N6">
-        <v>1.594594431248787</v>
+        <v>0.8727005091090732</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1271761812061243</v>
+        <v>0.2169609191133759</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01974302863602873</v>
+        <v>0.01990573506478199</v>
       </c>
       <c r="E7">
-        <v>0.1183009070073595</v>
+        <v>0.1924970879892669</v>
       </c>
       <c r="F7">
-        <v>0.8576247375171988</v>
+        <v>0.7699502917003542</v>
       </c>
       <c r="G7">
-        <v>0.7118900321448223</v>
+        <v>0.7091153125661549</v>
       </c>
       <c r="H7">
-        <v>0.7796443717468691</v>
+        <v>0.4680431327771544</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5171169613772406</v>
+        <v>1.696898801379859</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2439955014866655</v>
+        <v>0.6508755288071413</v>
       </c>
       <c r="N7">
-        <v>1.588774510899283</v>
+        <v>0.8581641367817845</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391301105050786</v>
+        <v>0.2604685502594464</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02012067484233881</v>
+        <v>0.02062121009166518</v>
       </c>
       <c r="E8">
-        <v>0.1275231866572639</v>
+        <v>0.2313082532194315</v>
       </c>
       <c r="F8">
-        <v>0.876990580579303</v>
+        <v>0.8768723526247868</v>
       </c>
       <c r="G8">
-        <v>0.7311992414856121</v>
+        <v>0.810972740073467</v>
       </c>
       <c r="H8">
-        <v>0.7820128007097225</v>
+        <v>0.5059518062012529</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6221286577903982</v>
+        <v>2.058008891143828</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.283286769017316</v>
+        <v>0.7948923147075604</v>
       </c>
       <c r="N8">
-        <v>1.564396386718673</v>
+        <v>0.7969194338494212</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.163130623946941</v>
+        <v>0.347372254275939</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02084921084797386</v>
+        <v>0.02202433177417618</v>
       </c>
       <c r="E9">
-        <v>0.1463811732572324</v>
+        <v>0.3116617105836923</v>
       </c>
       <c r="F9">
-        <v>0.9198784120681012</v>
+        <v>1.103007036115585</v>
       </c>
       <c r="G9">
-        <v>0.7735641526034556</v>
+        <v>1.027570886292295</v>
       </c>
       <c r="H9">
-        <v>0.7901875455598315</v>
+        <v>0.5896517554196095</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8279394793902668</v>
+        <v>2.777066571127619</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.361174317762277</v>
+        <v>1.085173767088477</v>
       </c>
       <c r="N9">
-        <v>1.521286940748958</v>
+        <v>0.6880179169735499</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1811002513312587</v>
+        <v>0.4125084483290493</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02137677097021751</v>
+        <v>0.02306107592614381</v>
       </c>
       <c r="E10">
-        <v>0.1607252660449348</v>
+        <v>0.3742536995118897</v>
       </c>
       <c r="F10">
-        <v>0.9544192688656921</v>
+        <v>1.282040632034793</v>
       </c>
       <c r="G10">
-        <v>0.8074779877264007</v>
+        <v>1.199999814650738</v>
       </c>
       <c r="H10">
-        <v>0.7983592453472568</v>
+        <v>0.6582366901239425</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9791101120300993</v>
+        <v>3.316086829737941</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4189395078033158</v>
+        <v>1.305481643784617</v>
       </c>
       <c r="N10">
-        <v>1.492484555234899</v>
+        <v>0.6156288769937674</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1893473693060486</v>
+        <v>0.442497551970618</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02161503062983883</v>
+        <v>0.02353571997560877</v>
       </c>
       <c r="E11">
-        <v>0.1673609195727153</v>
+        <v>0.4037429772993235</v>
       </c>
       <c r="F11">
-        <v>0.9707992878661003</v>
+        <v>1.36699323597081</v>
       </c>
       <c r="G11">
-        <v>0.8235217794801031</v>
+        <v>1.282076017285362</v>
       </c>
       <c r="H11">
-        <v>0.8025501154950518</v>
+        <v>0.6913201174256471</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.047881180035461</v>
+        <v>3.564642701331991</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4453428876159222</v>
+        <v>1.407792762652534</v>
       </c>
       <c r="N11">
-        <v>1.480006419416039</v>
+        <v>0.584547377067409</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1924806740885145</v>
+        <v>0.4539120173991904</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02170499792265801</v>
+        <v>0.02371606984221231</v>
       </c>
       <c r="E12">
-        <v>0.1698898417110044</v>
+        <v>0.4150785515517299</v>
       </c>
       <c r="F12">
-        <v>0.9770984983490649</v>
+        <v>1.399732541252575</v>
       </c>
       <c r="G12">
-        <v>0.8296864853126635</v>
+        <v>1.313748466592841</v>
       </c>
       <c r="H12">
-        <v>0.8042053993576701</v>
+        <v>0.704150645604841</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.073923711404632</v>
+        <v>3.659339828303587</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4553596770339112</v>
+        <v>1.446888052747923</v>
       </c>
       <c r="N12">
-        <v>1.475371212329016</v>
+        <v>0.5730617531566651</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1918054050627518</v>
+        <v>0.4514510050642713</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02168563338321405</v>
+        <v>0.02367719782921185</v>
       </c>
       <c r="E13">
-        <v>0.1693444708884471</v>
+        <v>0.4126293477024205</v>
       </c>
       <c r="F13">
-        <v>0.9757375527632064</v>
+        <v>1.392655108701319</v>
       </c>
       <c r="G13">
-        <v>0.8283548247732426</v>
+        <v>1.306899737312278</v>
       </c>
       <c r="H13">
-        <v>0.8038458638261261</v>
+        <v>0.7013733668956377</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.068314967237541</v>
+        <v>3.638917988041271</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4532015585219256</v>
+        <v>1.43845163603207</v>
       </c>
       <c r="N13">
-        <v>1.476365480963242</v>
+        <v>0.5755224323718515</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1896049425813544</v>
+        <v>0.4434354192873116</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02162243747639891</v>
+        <v>0.02355054405137125</v>
       </c>
       <c r="E14">
-        <v>0.1675686504641547</v>
+        <v>0.4046720444006766</v>
       </c>
       <c r="F14">
-        <v>0.9713155917206677</v>
+        <v>1.369674907420475</v>
       </c>
       <c r="G14">
-        <v>0.8240271606484555</v>
+        <v>1.284669445066271</v>
       </c>
       <c r="H14">
-        <v>0.8026849268598824</v>
+        <v>0.6923694362483559</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.050023706204456</v>
+        <v>3.572421416108398</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4461666042150654</v>
+        <v>1.411001780985046</v>
       </c>
       <c r="N14">
-        <v>1.479623273226302</v>
+        <v>0.5835966388464335</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1882584328288033</v>
+        <v>0.4385334347891074</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02158369453468367</v>
+        <v>0.02347305058058424</v>
       </c>
       <c r="E15">
-        <v>0.1664830194037208</v>
+        <v>0.3998206372511675</v>
       </c>
       <c r="F15">
-        <v>0.9686195890547538</v>
+        <v>1.355675087707567</v>
       </c>
       <c r="G15">
-        <v>0.8213879866214313</v>
+        <v>1.271132005656796</v>
       </c>
       <c r="H15">
-        <v>0.8019827191043873</v>
+        <v>0.68689466449581</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.038819836111145</v>
+        <v>3.531768052933216</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4418598978634947</v>
+        <v>1.394235451093024</v>
       </c>
       <c r="N15">
-        <v>1.481630491608133</v>
+        <v>0.5885799205615818</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1805627320904222</v>
+        <v>0.4105563625706026</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02136116466510529</v>
+        <v>0.02303013208296179</v>
       </c>
       <c r="E16">
-        <v>0.160293855366767</v>
+        <v>0.3723488200347873</v>
       </c>
       <c r="F16">
-        <v>0.9533622654927285</v>
+        <v>1.276564804245808</v>
       </c>
       <c r="G16">
-        <v>0.8064419443149404</v>
+        <v>1.194714871486809</v>
       </c>
       <c r="H16">
-        <v>0.7980949076818433</v>
+        <v>0.6561151522395505</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9746158186366358</v>
+        <v>3.299918261361313</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4172165421602898</v>
+        <v>1.298841745175579</v>
       </c>
       <c r="N16">
-        <v>1.493312611184965</v>
+        <v>0.6176988615925474</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.175860171079492</v>
+        <v>0.3934897269959379</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02122420114663015</v>
+        <v>0.02275930631353162</v>
       </c>
       <c r="E17">
-        <v>0.1565254787180734</v>
+        <v>0.3557712307421426</v>
       </c>
       <c r="F17">
-        <v>0.9441736411756665</v>
+        <v>1.228976270871456</v>
       </c>
       <c r="G17">
-        <v>0.7974313272925144</v>
+        <v>1.148813975163478</v>
       </c>
       <c r="H17">
-        <v>0.795831283613353</v>
+        <v>0.6377369549265381</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9352294596108948</v>
+        <v>3.158607408434136</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.402131068822186</v>
+        <v>1.240891557954271</v>
       </c>
       <c r="N17">
-        <v>1.50063925236423</v>
+        <v>0.6360484440554863</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1731622287285859</v>
+        <v>0.3837067447750826</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0211452609543592</v>
+        <v>0.02260380658747962</v>
       </c>
       <c r="E18">
-        <v>0.1543683888606537</v>
+        <v>0.3463303728688274</v>
       </c>
       <c r="F18">
-        <v>0.9389513578339859</v>
+        <v>1.201930669983767</v>
       </c>
       <c r="G18">
-        <v>0.792306620467599</v>
+        <v>1.122750852431778</v>
       </c>
       <c r="H18">
-        <v>0.7945738649945326</v>
+        <v>0.6273415400779356</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9125757286068108</v>
+        <v>3.077638674165485</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3934661158188106</v>
+        <v>1.207753665300714</v>
       </c>
       <c r="N18">
-        <v>1.504912082460589</v>
+        <v>0.6467754389381888</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1722499321206641</v>
+        <v>0.3803999173051835</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0211185055073102</v>
+        <v>0.02255119891822233</v>
       </c>
       <c r="E19">
-        <v>0.1536398102718053</v>
+        <v>0.3431493799675138</v>
       </c>
       <c r="F19">
-        <v>0.9371939478461258</v>
+        <v>1.19282761959424</v>
       </c>
       <c r="G19">
-        <v>0.7905814177695447</v>
+        <v>1.11398236491496</v>
       </c>
       <c r="H19">
-        <v>0.7941557714927399</v>
+        <v>0.623851014554532</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9049056088641407</v>
+        <v>3.050274553995621</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3905343304937219</v>
+        <v>1.196565499847203</v>
       </c>
       <c r="N19">
-        <v>1.506368870981415</v>
+        <v>0.6504365601315882</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1763600592118877</v>
+        <v>0.3953030065633101</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02123879801147055</v>
+        <v>0.02278810683981902</v>
       </c>
       <c r="E20">
-        <v>0.1569255525965829</v>
+        <v>0.3575260453786342</v>
       </c>
       <c r="F20">
-        <v>0.9451452857470031</v>
+        <v>1.234007954736782</v>
       </c>
       <c r="G20">
-        <v>0.7983845192687795</v>
+        <v>1.153664759394303</v>
       </c>
       <c r="H20">
-        <v>0.7960676372177033</v>
+        <v>0.6396749895810956</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9394221776422</v>
+        <v>3.173617516159737</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4037357183381545</v>
+        <v>1.247040069682711</v>
       </c>
       <c r="N20">
-        <v>1.499853237878536</v>
+        <v>0.6340770875078228</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1902509933722314</v>
+        <v>0.4457881542885502</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02164100666709956</v>
+        <v>0.02358772712506862</v>
       </c>
       <c r="E21">
-        <v>0.1680898117319671</v>
+        <v>0.4070045289130917</v>
       </c>
       <c r="F21">
-        <v>0.9726118070968255</v>
+        <v>1.3764087407734</v>
       </c>
       <c r="G21">
-        <v>0.825295872474868</v>
+        <v>1.291182370811356</v>
       </c>
       <c r="H21">
-        <v>0.8030240671468221</v>
+        <v>0.6950056293915168</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.05539628135989</v>
+        <v>3.591936698674147</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4482324387691392</v>
+        <v>1.419054470397825</v>
       </c>
       <c r="N21">
-        <v>1.478663936446967</v>
+        <v>0.5812171780524196</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1993894914255208</v>
+        <v>0.4791261059511243</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02190237496097325</v>
+        <v>0.02411400366084138</v>
       </c>
       <c r="E22">
-        <v>0.1754805234478454</v>
+        <v>0.4403367525899498</v>
       </c>
       <c r="F22">
-        <v>0.9911252056476485</v>
+        <v>1.47283092593841</v>
       </c>
       <c r="G22">
-        <v>0.8434046400481918</v>
+        <v>1.384545730018061</v>
       </c>
       <c r="H22">
-        <v>0.8079686506862345</v>
+        <v>0.7329479967358168</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.131194526586512</v>
+        <v>3.868730540537172</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4774210355971888</v>
+        <v>1.533557194831701</v>
       </c>
       <c r="N22">
-        <v>1.465340156105107</v>
+        <v>0.548336962842086</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1945066640685127</v>
+        <v>0.4612992707650392</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02176301736358255</v>
+        <v>0.02383271534796094</v>
       </c>
       <c r="E23">
-        <v>0.1715272533660013</v>
+        <v>0.4224475501640299</v>
       </c>
       <c r="F23">
-        <v>0.9811926242562095</v>
+        <v>1.421038401164225</v>
       </c>
       <c r="G23">
-        <v>0.8336917926269223</v>
+        <v>1.334372189078238</v>
       </c>
       <c r="H23">
-        <v>0.8052931354293378</v>
+        <v>0.7125231936864793</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.090739343038365</v>
+        <v>3.720656481008234</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4618325947167961</v>
+        <v>1.472236022696265</v>
       </c>
       <c r="N23">
-        <v>1.472403225305079</v>
+        <v>0.5657266758242088</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1761340422629161</v>
+        <v>0.3944831334990084</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02123219938373921</v>
+        <v>0.02277508550684004</v>
       </c>
       <c r="E24">
-        <v>0.1567446499389504</v>
+        <v>0.356732415588418</v>
       </c>
       <c r="F24">
-        <v>0.9447058171916609</v>
+        <v>1.231732158245933</v>
       </c>
       <c r="G24">
-        <v>0.7979534079791506</v>
+        <v>1.151470709817659</v>
       </c>
       <c r="H24">
-        <v>0.7959606447979581</v>
+        <v>0.6387982755366863</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9375266809463199</v>
+        <v>3.166830603734013</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4030102317586426</v>
+        <v>1.244259775545643</v>
       </c>
       <c r="N24">
-        <v>1.500208406121086</v>
+        <v>0.6349677860673744</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1565784565892727</v>
+        <v>0.3236608990873293</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02065344848825745</v>
+        <v>0.02164421664056704</v>
       </c>
       <c r="E25">
-        <v>0.1411949849309266</v>
+        <v>0.2893751023255504</v>
       </c>
       <c r="F25">
-        <v>0.9077464973700415</v>
+        <v>1.039789417904544</v>
       </c>
       <c r="G25">
-        <v>0.7616169422042418</v>
+        <v>0.966875284537565</v>
       </c>
       <c r="H25">
-        <v>0.7875967277125397</v>
+        <v>0.5658710870198291</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7722713536255128</v>
+        <v>2.580975168573701</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3400108562648825</v>
+        <v>1.005583834712724</v>
       </c>
       <c r="N25">
-        <v>1.532445708852578</v>
+        <v>0.7162019484295428</v>
       </c>
       <c r="O25">
         <v>0</v>
